--- a/python_src/nist_confusion/confusion_matrix_dropped_0.0001.xlsx
+++ b/python_src/nist_confusion/confusion_matrix_dropped_0.0001.xlsx
@@ -958,7 +958,7 @@
         <v>0.8148148148148148</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8712871287128714</v>
+        <v>0.8712871287128715</v>
       </c>
       <c r="L13" t="n">
         <v>0.0001</v>
@@ -1524,13 +1524,13 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>0.8048780487804877</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9496402877697842</v>
+        <v>0.9496402877697843</v>
       </c>
       <c r="J13" t="n">
         <v>0.8048780487804879</v>
@@ -2114,7 +2114,7 @@
         <v>0.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8655737704918034</v>
+        <v>0.8655737704918033</v>
       </c>
       <c r="L13" t="n">
         <v>0.0001</v>
@@ -3267,10 +3267,10 @@
         <v>0.9361702127659575</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9166666666666667</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9530685920577617</v>
+        <v>0.9530685920577618</v>
       </c>
       <c r="L13" t="n">
         <v>0.0001</v>
